--- a/ГенераторКода.xlsx
+++ b/ГенераторКода.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12075" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12075" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Дичь" sheetId="1" r:id="rId1"/>
     <sheet name="Operation" sheetId="2" r:id="rId2"/>
     <sheet name="Вид РПО" sheetId="3" r:id="rId3"/>
     <sheet name="Категория РПО" sheetId="4" r:id="rId4"/>
+    <sheet name="Телефон" sheetId="5" r:id="rId5"/>
+    <sheet name="качества адреса" sheetId="6" r:id="rId6"/>
+    <sheet name="нормализации адреса" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="472">
   <si>
     <t>Код операции</t>
   </si>
@@ -1205,6 +1208,234 @@
   </si>
   <si>
     <t>Комбинированное</t>
+  </si>
+  <si>
+    <t>CONFIRMED_MANUALLY</t>
+  </si>
+  <si>
+    <t>Подтверждено контролером</t>
+  </si>
+  <si>
+    <t>GOOD</t>
+  </si>
+  <si>
+    <t>Корректный телефонный номер</t>
+  </si>
+  <si>
+    <t>GOOD_REPLACED_CODE</t>
+  </si>
+  <si>
+    <t>Изменен код телефонного номера</t>
+  </si>
+  <si>
+    <t>GOOD_REPLACED_NUMBER</t>
+  </si>
+  <si>
+    <t>Изменен номер телефона</t>
+  </si>
+  <si>
+    <t>GOOD_REPLACED_CODE_NUMBER</t>
+  </si>
+  <si>
+    <t>Изменен код и номер телефона</t>
+  </si>
+  <si>
+    <t>GOOD_CITY_CONFLICT</t>
+  </si>
+  <si>
+    <t>Конфликт по городу</t>
+  </si>
+  <si>
+    <t>GOOD_REGION_CONFLICT</t>
+  </si>
+  <si>
+    <t>Конфликт по региону</t>
+  </si>
+  <si>
+    <t>FOREIGN</t>
+  </si>
+  <si>
+    <t>Иностранный телефонный номер</t>
+  </si>
+  <si>
+    <t>CODE_AMBI</t>
+  </si>
+  <si>
+    <t>Неоднозначный код телефонного номера</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>Пустой телефонный номер</t>
+  </si>
+  <si>
+    <t>GARBAGE</t>
+  </si>
+  <si>
+    <t>Телефонный номер содержит некорректные символы</t>
+  </si>
+  <si>
+    <t>GOOD_CITY</t>
+  </si>
+  <si>
+    <t>Восстановлен город в телефонном номере</t>
+  </si>
+  <si>
+    <t>GOOD_EXTRA_PHONE</t>
+  </si>
+  <si>
+    <t>Запись содержит более одного телефона</t>
+  </si>
+  <si>
+    <t>UNDEF</t>
+  </si>
+  <si>
+    <t>Телефон не может быть распознан</t>
+  </si>
+  <si>
+    <t>INCORRECT_DATA</t>
+  </si>
+  <si>
+    <t>Пригоден для почтовой рассылки</t>
+  </si>
+  <si>
+    <t>ON_DEMAND</t>
+  </si>
+  <si>
+    <t>POSTAL_BOX</t>
+  </si>
+  <si>
+    <t>Абонентский ящик</t>
+  </si>
+  <si>
+    <t>UNDEF_01</t>
+  </si>
+  <si>
+    <t>Не определен регион</t>
+  </si>
+  <si>
+    <t>UNDEF_02</t>
+  </si>
+  <si>
+    <t>Не определен город или населенный пункт</t>
+  </si>
+  <si>
+    <t>UNDEF_03</t>
+  </si>
+  <si>
+    <t>Не определена улица</t>
+  </si>
+  <si>
+    <t>UNDEF_04</t>
+  </si>
+  <si>
+    <t>Не определен номер дома</t>
+  </si>
+  <si>
+    <t>UNDEF_05</t>
+  </si>
+  <si>
+    <t>Не определена квартира/офис</t>
+  </si>
+  <si>
+    <t>UNDEF_06</t>
+  </si>
+  <si>
+    <t>Не определен</t>
+  </si>
+  <si>
+    <t>UNDEF_07</t>
+  </si>
+  <si>
+    <t>Иностранный адрес</t>
+  </si>
+  <si>
+    <t>VALIDATED</t>
+  </si>
+  <si>
+    <t>Уверенное распознавание</t>
+  </si>
+  <si>
+    <t>OVERRIDDEN</t>
+  </si>
+  <si>
+    <t>Распознан: адрес был перезаписан в справочнике</t>
+  </si>
+  <si>
+    <t>NOT_VALIDATED_HAS_UNPARSED_PARTS</t>
+  </si>
+  <si>
+    <t>На проверку, неразобранные части</t>
+  </si>
+  <si>
+    <t>NOT_VALIDATED_HAS_ASSUMPTION</t>
+  </si>
+  <si>
+    <t>На проверку, предположение</t>
+  </si>
+  <si>
+    <t>NOT_VALIDATED_HAS_NO_MAIN_POINTS</t>
+  </si>
+  <si>
+    <t>На проверку, нет основных частей</t>
+  </si>
+  <si>
+    <t>NOT_VALIDATED_HAS_NUMBER_STREET_ASSUMPTION</t>
+  </si>
+  <si>
+    <t>На проверку, предположение по улице</t>
+  </si>
+  <si>
+    <t>NOT_VALIDATED_HAS_NO_KLADR_RECORD</t>
+  </si>
+  <si>
+    <t>На проверку, нет в КЛАДР</t>
+  </si>
+  <si>
+    <t>NOT_VALIDATED_HOUSE_WITHOUT_STREET_OR_NP</t>
+  </si>
+  <si>
+    <t>На проверку, нет улицы или населенного пункта</t>
+  </si>
+  <si>
+    <t>NOT_VALIDATED_HOUSE_EXTENSION_WITHOUT_HOUSE</t>
+  </si>
+  <si>
+    <t>На проверку, нет дома</t>
+  </si>
+  <si>
+    <t>NOT_VALIDATED_HAS_AMBI</t>
+  </si>
+  <si>
+    <t>На проверку, неоднозначность</t>
+  </si>
+  <si>
+    <t>NOT_VALIDATED_EXCEDED_HOUSE_NUMBER</t>
+  </si>
+  <si>
+    <t>На проверку, большой номер дома</t>
+  </si>
+  <si>
+    <t>NOT_VALIDATED_INCORRECT_HOUSE</t>
+  </si>
+  <si>
+    <t>На проверку, некорректный дом</t>
+  </si>
+  <si>
+    <t>NOT_VALIDATED_INCORRECT_HOUSE_EXTENSION</t>
+  </si>
+  <si>
+    <t>На проверку, некорректное расширение дома</t>
+  </si>
+  <si>
+    <t>NOT_VALIDATED_FOREIGN</t>
+  </si>
+  <si>
+    <t>NOT_VALIDATED_DICTIONARY</t>
+  </si>
+  <si>
+    <t>На проверку, не по справочнику</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1478,16 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1273,7 +1513,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Код операции"/>
     <tableColumn id="2" name="Название операции"/>
-    <tableColumn id="3" name="Столбец1" dataDxfId="2">
+    <tableColumn id="3" name="Столбец1" dataDxfId="5">
       <calculatedColumnFormula>"/// &lt;summary&gt;
   /// "&amp;Таблица1[[#This Row],[Название операции]]&amp;"
   /// &lt;/summary&gt;
@@ -1290,7 +1530,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Значение"/>
     <tableColumn id="2" name="Описание"/>
-    <tableColumn id="3" name="Столбец1" dataDxfId="0">
+    <tableColumn id="3" name="Столбец1" dataDxfId="4">
       <calculatedColumnFormula>"/// &lt;summary&gt;
   /// "&amp;Таблица3[[#This Row],[Описание]]&amp;"
   /// &lt;/summary&gt;
@@ -1307,11 +1547,62 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Значение"/>
     <tableColumn id="2" name="Описание"/>
+    <tableColumn id="3" name="Столбец1" dataDxfId="3">
+      <calculatedColumnFormula>"/// &lt;summary&gt;
+  /// "&amp;Таблица4[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица4[[#This Row],[Значение]]&amp;","</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Значение"/>
+    <tableColumn id="2" name="Описание"/>
+    <tableColumn id="3" name="Столбец1" dataDxfId="2">
+      <calculatedColumnFormula>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Значение"/>
+    <tableColumn id="2" name="Описание"/>
     <tableColumn id="3" name="Столбец1" dataDxfId="1">
       <calculatedColumnFormula>"/// &lt;summary&gt;
-  /// "&amp;Таблица4[[#This Row],[Описание]]&amp;"
-  /// &lt;/summary&gt;
- "&amp;Таблица4[[#This Row],[Значение]]&amp;","</calculatedColumnFormula>
+  /// "&amp;Таблица5[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица5[[#This Row],[Значение]]&amp;","</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Значение"/>
+    <tableColumn id="2" name="Описание"/>
+    <tableColumn id="3" name="Столбец1" dataDxfId="0">
+      <calculatedColumnFormula>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7435,8 +7726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7866,7 +8157,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8074,4 +8365,844 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="159.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Подтверждено контролером
+  /// &lt;/summary&gt;
+ CONFIRMED_MANUALLY,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Корректный телефонный номер
+  /// &lt;/summary&gt;
+ GOOD,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Изменен код телефонного номера
+  /// &lt;/summary&gt;
+ GOOD_REPLACED_CODE,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Изменен номер телефона
+  /// &lt;/summary&gt;
+ GOOD_REPLACED_NUMBER,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Изменен код и номер телефона
+  /// &lt;/summary&gt;
+ GOOD_REPLACED_CODE_NUMBER,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Конфликт по городу
+  /// &lt;/summary&gt;
+ GOOD_CITY_CONFLICT,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Конфликт по региону
+  /// &lt;/summary&gt;
+ GOOD_REGION_CONFLICT,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Иностранный телефонный номер
+  /// &lt;/summary&gt;
+ FOREIGN,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C10" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Неоднозначный код телефонного номера
+  /// &lt;/summary&gt;
+ CODE_AMBI,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Пустой телефонный номер
+  /// &lt;/summary&gt;
+ EMPTY,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Телефонный номер содержит некорректные символы
+  /// &lt;/summary&gt;
+ GARBAGE,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C13" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Восстановлен город в телефонном номере
+  /// &lt;/summary&gt;
+ GOOD_CITY,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Запись содержит более одного телефона
+  /// &lt;/summary&gt;
+ GOOD_EXTRA_PHONE,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>422</v>
+      </c>
+      <c r="B15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C15" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Телефон не может быть распознан
+  /// &lt;/summary&gt;
+ UNDEF,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>424</v>
+      </c>
+      <c r="B16" t="s">
+        <v>423</v>
+      </c>
+      <c r="C16" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица2[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Телефон не может быть распознан
+  /// &lt;/summary&gt;
+ INCORRECT_DATA,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица5[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица5[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Пригоден для почтовой рассылки
+  /// &lt;/summary&gt;
+ GOOD,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица5[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица5[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// До востребования
+  /// &lt;/summary&gt;
+ ON_DEMAND,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица5[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица5[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Абонентский ящик
+  /// &lt;/summary&gt;
+ POSTAL_BOX,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица5[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица5[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Не определен регион
+  /// &lt;/summary&gt;
+ UNDEF_01,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица5[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица5[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Не определен город или населенный пункт
+  /// &lt;/summary&gt;
+ UNDEF_02,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица5[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица5[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Не определена улица
+  /// &lt;/summary&gt;
+ UNDEF_03,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C8" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица5[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица5[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Не определен номер дома
+  /// &lt;/summary&gt;
+ UNDEF_04,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица5[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица5[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Не определена квартира/офис
+  /// &lt;/summary&gt;
+ UNDEF_05,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C10" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица5[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица5[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Не определен
+  /// &lt;/summary&gt;
+ UNDEF_06,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица5[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица5[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Иностранный адрес
+  /// &lt;/summary&gt;
+ UNDEF_07,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Подтверждено контролером
+  /// &lt;/summary&gt;
+ CONFIRMED_MANUALLY,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Уверенное распознавание
+  /// &lt;/summary&gt;
+ VALIDATED,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Распознан: адрес был перезаписан в справочнике
+  /// &lt;/summary&gt;
+ OVERRIDDEN,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// На проверку, неразобранные части
+  /// &lt;/summary&gt;
+ NOT_VALIDATED_HAS_UNPARSED_PARTS,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// На проверку, предположение
+  /// &lt;/summary&gt;
+ NOT_VALIDATED_HAS_ASSUMPTION,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// На проверку, нет основных частей
+  /// &lt;/summary&gt;
+ NOT_VALIDATED_HAS_NO_MAIN_POINTS,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// На проверку, предположение по улице
+  /// &lt;/summary&gt;
+ NOT_VALIDATED_HAS_NUMBER_STREET_ASSUMPTION,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// На проверку, нет в КЛАДР
+  /// &lt;/summary&gt;
+ NOT_VALIDATED_HAS_NO_KLADR_RECORD,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C10" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// На проверку, нет улицы или населенного пункта
+  /// &lt;/summary&gt;
+ NOT_VALIDATED_HOUSE_WITHOUT_STREET_OR_NP,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// На проверку, нет дома
+  /// &lt;/summary&gt;
+ NOT_VALIDATED_HOUSE_EXTENSION_WITHOUT_HOUSE,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C12" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// На проверку, неоднозначность
+  /// &lt;/summary&gt;
+ NOT_VALIDATED_HAS_AMBI,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>463</v>
+      </c>
+      <c r="B13" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// На проверку, большой номер дома
+  /// &lt;/summary&gt;
+ NOT_VALIDATED_EXCEDED_HOUSE_NUMBER,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B14" t="s">
+        <v>466</v>
+      </c>
+      <c r="C14" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// На проверку, некорректный дом
+  /// &lt;/summary&gt;
+ NOT_VALIDATED_INCORRECT_HOUSE,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B15" t="s">
+        <v>468</v>
+      </c>
+      <c r="C15" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// На проверку, некорректное расширение дома
+  /// &lt;/summary&gt;
+ NOT_VALIDATED_INCORRECT_HOUSE_EXTENSION,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>469</v>
+      </c>
+      <c r="B16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Иностранный адрес
+  /// &lt;/summary&gt;
+ NOT_VALIDATED_FOREIGN,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>470</v>
+      </c>
+      <c r="B17" t="s">
+        <v>471</v>
+      </c>
+      <c r="C17" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// На проверку, не по справочнику
+  /// &lt;/summary&gt;
+ NOT_VALIDATED_DICTIONARY,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/ГенераторКода.xlsx
+++ b/ГенераторКода.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12075" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12075" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Дичь" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Телефон" sheetId="5" r:id="rId5"/>
     <sheet name="качества адреса" sheetId="6" r:id="rId6"/>
     <sheet name="нормализации адреса" sheetId="7" r:id="rId7"/>
+    <sheet name="Продукты" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="579">
   <si>
     <t>Код операции</t>
   </si>
@@ -1436,6 +1437,327 @@
   </si>
   <si>
     <t>На проверку, не по справочнику</t>
+  </si>
+  <si>
+    <t>LETTER_ORDERED</t>
+  </si>
+  <si>
+    <t>Заказное письмо</t>
+  </si>
+  <si>
+    <t>LETTER_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>Письмо с объявленной ценностью</t>
+  </si>
+  <si>
+    <t>LETTER_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY</t>
+  </si>
+  <si>
+    <t>Письмо с объявленной ценностью и наложенным платежом</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL_LETTER_ORDERED</t>
+  </si>
+  <si>
+    <t>Международное заказное письмо</t>
+  </si>
+  <si>
+    <t>BANDEROL_SIMPLE</t>
+  </si>
+  <si>
+    <t>Простая бандероль (консолидатор)</t>
+  </si>
+  <si>
+    <t>BANDEROL_ORDERED</t>
+  </si>
+  <si>
+    <t>Заказная бандероль</t>
+  </si>
+  <si>
+    <t>BANDEROL_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>Бандероль с объявленной ценностью</t>
+  </si>
+  <si>
+    <t>BANDEROL_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY</t>
+  </si>
+  <si>
+    <t>Бандероль с объявленной ценностью и наложенным платежом</t>
+  </si>
+  <si>
+    <t>POSTAL_PARCEL_ORDINARY</t>
+  </si>
+  <si>
+    <t>Посылка обыкновенная</t>
+  </si>
+  <si>
+    <t>POSTAL_PARCEL_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>Посылка с объявленной ценностью</t>
+  </si>
+  <si>
+    <t>POSTAL_PARCEL_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY</t>
+  </si>
+  <si>
+    <t>Посылка с объявленной ценностью и наложенным платежом</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL_POSTAL_PARCEL_ORDINARY</t>
+  </si>
+  <si>
+    <t>Посылка обыкновенная международная</t>
+  </si>
+  <si>
+    <t>EMS_ORDINARY</t>
+  </si>
+  <si>
+    <t>EMS обыкновенное</t>
+  </si>
+  <si>
+    <t>EMS_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>EMS с объявленной ценностью</t>
+  </si>
+  <si>
+    <t>EMS_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY</t>
+  </si>
+  <si>
+    <t>EMS с объявленной ценностью и наложенным платежом</t>
+  </si>
+  <si>
+    <t>EMS_OPTIMAL_ORDINARY</t>
+  </si>
+  <si>
+    <t>EMS оптимальное обыкновенное</t>
+  </si>
+  <si>
+    <t>EMS_OPTIMAL_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>EMS оптимальное с объявленной ценностью</t>
+  </si>
+  <si>
+    <t>EMS_OPTIMAL_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY</t>
+  </si>
+  <si>
+    <t>EMS оптимальное с объявленной ценностью и наложенным платежом</t>
+  </si>
+  <si>
+    <t>EMS_RT_ORDINARY</t>
+  </si>
+  <si>
+    <t>EMS_RT_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>ONLINE_PARCEL_ORDINARY</t>
+  </si>
+  <si>
+    <t>Посылка онлайн обыкновенная</t>
+  </si>
+  <si>
+    <t>ONLINE_PARCEL_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>Посылка онлайн с объявленной ценностью</t>
+  </si>
+  <si>
+    <t>ONLINE_PARCEL_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY</t>
+  </si>
+  <si>
+    <t>Посылка онлайн с объявленной ценностью и наложенным платежом</t>
+  </si>
+  <si>
+    <t>ONLINE_COURIER_ORDINARY</t>
+  </si>
+  <si>
+    <t>Курьер онлайн обыкновенное</t>
+  </si>
+  <si>
+    <t>ONLINE_COURIER_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>Курьер онлайн с объявленной ценностью</t>
+  </si>
+  <si>
+    <t>ONLINE_COURIER_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY</t>
+  </si>
+  <si>
+    <t>Курьер онлайн с объявленной ценностью и наложенным платежом</t>
+  </si>
+  <si>
+    <t>BUSINESS_COURIER_ORDINARY</t>
+  </si>
+  <si>
+    <t>Бизнес Курьер обыкновненное</t>
+  </si>
+  <si>
+    <t>BUSINESS_COURIER_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>Бизнес Курьер с объявленной ценностью</t>
+  </si>
+  <si>
+    <t>BUSINESS_COURIER_ES_ORDINARY</t>
+  </si>
+  <si>
+    <t>Бизнес Курьер экспресс обыкновненное</t>
+  </si>
+  <si>
+    <t>BUSINESS_COURIER_ES_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>Бизнес Курьер экспресс с объявленной ценностью</t>
+  </si>
+  <si>
+    <t>PARCEL_CLASS_1_ORDINARY</t>
+  </si>
+  <si>
+    <t>Посылка 1-го класса обыкновенная</t>
+  </si>
+  <si>
+    <t>PARCEL_CLASS_1_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>Посылка 1-го класса с объявленной ценностью</t>
+  </si>
+  <si>
+    <t>PARCEL_CLASS_1_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY</t>
+  </si>
+  <si>
+    <t>Посылка 1-го класса с объявленной ценностью и наложенным платежом</t>
+  </si>
+  <si>
+    <t>LETTER_CLASS_1_ORDERED</t>
+  </si>
+  <si>
+    <t>Письмо 1-го класса заказное</t>
+  </si>
+  <si>
+    <t>LETTER_CLASS_1_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>Письмо 1-го класса с объявленной ценностью</t>
+  </si>
+  <si>
+    <t>LETTER_CLASS_1_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY</t>
+  </si>
+  <si>
+    <t>Письмо 1-го класса с объявленной ценностью и наложенным платежом</t>
+  </si>
+  <si>
+    <t>BANDEROL_CLASS_1_ORDERED</t>
+  </si>
+  <si>
+    <t>Бандероль 1 класса заказное</t>
+  </si>
+  <si>
+    <t>BANDEROL_CLASS_1_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>Бандероль 1 класса с объявленной ценностью</t>
+  </si>
+  <si>
+    <t>BANDEROL_CLASS_1_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY</t>
+  </si>
+  <si>
+    <t>Бандероль 1 класса с объявленной ценностью и наложенным платежом</t>
+  </si>
+  <si>
+    <t>LETTER_SIMPLE</t>
+  </si>
+  <si>
+    <t>Письмо обыкновенное (консолидатор)</t>
+  </si>
+  <si>
+    <t>SINGLE_LETTER_SIMPLE</t>
+  </si>
+  <si>
+    <t>Простое письмо единичное</t>
+  </si>
+  <si>
+    <t>SINGLE_BANDEROL_SIMPLE</t>
+  </si>
+  <si>
+    <t>Простая бандероль единичная</t>
+  </si>
+  <si>
+    <t>SMALL_PACKET_ORDERED</t>
+  </si>
+  <si>
+    <t>Мелкий пакет заказной</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL_EMS_ORDINARY</t>
+  </si>
+  <si>
+    <t>EMS международное обыкновенное</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL_SINGLE_LETTER_SIMPLE</t>
+  </si>
+  <si>
+    <t>Международное простое письмо</t>
+  </si>
+  <si>
+    <t>VGPO_CLASS_1_ORDERED</t>
+  </si>
+  <si>
+    <t>ВГПО 1-го класса заказное</t>
+  </si>
+  <si>
+    <t>VGPO_CLASS_1_SIMPLE</t>
+  </si>
+  <si>
+    <t>ВГПО 1-го класса простое</t>
+  </si>
+  <si>
+    <t>EMS_TENDER_ORDINARY</t>
+  </si>
+  <si>
+    <t>EMS Тендер</t>
+  </si>
+  <si>
+    <t>EMS_TENDER_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>EMS Тендер с объявленной ценностью</t>
+  </si>
+  <si>
+    <t>VSD_ORDINARY</t>
+  </si>
+  <si>
+    <t>ECOM_ORDINARY</t>
+  </si>
+  <si>
+    <t>ЕКОМ обыкновенное</t>
+  </si>
+  <si>
+    <t>ECOM_WITH_COMPULSORY_PAYMENT</t>
+  </si>
+  <si>
+    <t>ЕКОМ с обязательным платежом</t>
+  </si>
+  <si>
+    <t>ECOM_MARKETPLACE_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>ЕКОМ Маркетплейс с объявленной ценностью</t>
+  </si>
+  <si>
+    <t>EASY_RETURN_ORDINARY</t>
+  </si>
+  <si>
+    <t>Легкий возврат обыкновенное</t>
+  </si>
+  <si>
+    <t>EASY_RETURN_WITH_DECLARED_VALUE</t>
+  </si>
+  <si>
+    <t>Легкий возврат с объявленной ценностью</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1800,10 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1513,7 +1838,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Код операции"/>
     <tableColumn id="2" name="Название операции"/>
-    <tableColumn id="3" name="Столбец1" dataDxfId="5">
+    <tableColumn id="3" name="Столбец1" dataDxfId="6">
       <calculatedColumnFormula>"/// &lt;summary&gt;
   /// "&amp;Таблица1[[#This Row],[Название операции]]&amp;"
   /// &lt;/summary&gt;
@@ -1530,7 +1855,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Значение"/>
     <tableColumn id="2" name="Описание"/>
-    <tableColumn id="3" name="Столбец1" dataDxfId="4">
+    <tableColumn id="3" name="Столбец1" dataDxfId="5">
       <calculatedColumnFormula>"/// &lt;summary&gt;
   /// "&amp;Таблица3[[#This Row],[Описание]]&amp;"
   /// &lt;/summary&gt;
@@ -1547,7 +1872,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Значение"/>
     <tableColumn id="2" name="Описание"/>
-    <tableColumn id="3" name="Столбец1" dataDxfId="3">
+    <tableColumn id="3" name="Столбец1" dataDxfId="4">
       <calculatedColumnFormula>"/// &lt;summary&gt;
   /// "&amp;Таблица4[[#This Row],[Описание]]&amp;"
   /// &lt;/summary&gt;
@@ -1564,7 +1889,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Значение"/>
     <tableColumn id="2" name="Описание"/>
-    <tableColumn id="3" name="Столбец1" dataDxfId="2">
+    <tableColumn id="3" name="Столбец1" dataDxfId="3">
       <calculatedColumnFormula>"/// &lt;summary&gt;
   /// "&amp;Таблица2[[#This Row],[Описание]]&amp;"
   /// &lt;/summary&gt;
@@ -1581,7 +1906,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Значение"/>
     <tableColumn id="2" name="Описание"/>
-    <tableColumn id="3" name="Столбец1" dataDxfId="1">
+    <tableColumn id="3" name="Столбец1" dataDxfId="2">
       <calculatedColumnFormula>"/// &lt;summary&gt;
   /// "&amp;Таблица5[[#This Row],[Описание]]&amp;"
   /// &lt;/summary&gt;
@@ -1598,11 +1923,28 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Значение"/>
     <tableColumn id="2" name="Описание"/>
+    <tableColumn id="3" name="Столбец1" dataDxfId="1">
+      <calculatedColumnFormula>"/// &lt;summary&gt;
+  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица6[[#This Row],[Значение]]&amp;","</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:C56" totalsRowShown="0">
+  <autoFilter ref="A1:C56"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Значение"/>
+    <tableColumn id="2" name="Описание"/>
     <tableColumn id="3" name="Столбец1" dataDxfId="0">
       <calculatedColumnFormula>"/// &lt;summary&gt;
-  /// "&amp;Таблица6[[#This Row],[Описание]]&amp;"
-  /// &lt;/summary&gt;
- "&amp;Таблица6[[#This Row],[Значение]]&amp;","</calculatedColumnFormula>
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8889,8 +9231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9205,4 +9547,1028 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C56" sqref="C2:C56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="168.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Заказное письмо
+  /// &lt;/summary&gt;
+ LETTER_ORDERED,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Письмо с объявленной ценностью
+  /// &lt;/summary&gt;
+ LETTER_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Письмо с объявленной ценностью и наложенным платежом
+  /// &lt;/summary&gt;
+ LETTER_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Международное заказное письмо
+  /// &lt;/summary&gt;
+ INTERNATIONAL_LETTER_ORDERED,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C6" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Простая бандероль (консолидатор)
+  /// &lt;/summary&gt;
+ BANDEROL_SIMPLE,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Заказная бандероль
+  /// &lt;/summary&gt;
+ BANDEROL_ORDERED,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C8" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Бандероль с объявленной ценностью
+  /// &lt;/summary&gt;
+ BANDEROL_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Бандероль с объявленной ценностью и наложенным платежом
+  /// &lt;/summary&gt;
+ BANDEROL_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C10" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Посылка обыкновенная
+  /// &lt;/summary&gt;
+ POSTAL_PARCEL_ORDINARY,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Посылка с объявленной ценностью
+  /// &lt;/summary&gt;
+ POSTAL_PARCEL_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C12" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Посылка с объявленной ценностью и наложенным платежом
+  /// &lt;/summary&gt;
+ POSTAL_PARCEL_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>494</v>
+      </c>
+      <c r="B13" t="s">
+        <v>495</v>
+      </c>
+      <c r="C13" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Посылка обыкновенная международная
+  /// &lt;/summary&gt;
+ INTERNATIONAL_POSTAL_PARCEL_ORDINARY,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B14" t="s">
+        <v>497</v>
+      </c>
+      <c r="C14" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// EMS обыкновенное
+  /// &lt;/summary&gt;
+ EMS_ORDINARY,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B15" t="s">
+        <v>499</v>
+      </c>
+      <c r="C15" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// EMS с объявленной ценностью
+  /// &lt;/summary&gt;
+ EMS_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>500</v>
+      </c>
+      <c r="B16" t="s">
+        <v>501</v>
+      </c>
+      <c r="C16" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// EMS с объявленной ценностью и наложенным платежом
+  /// &lt;/summary&gt;
+ EMS_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>502</v>
+      </c>
+      <c r="B17" t="s">
+        <v>503</v>
+      </c>
+      <c r="C17" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// EMS оптимальное обыкновенное
+  /// &lt;/summary&gt;
+ EMS_OPTIMAL_ORDINARY,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>504</v>
+      </c>
+      <c r="B18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C18" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// EMS оптимальное с объявленной ценностью
+  /// &lt;/summary&gt;
+ EMS_OPTIMAL_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>506</v>
+      </c>
+      <c r="B19" t="s">
+        <v>507</v>
+      </c>
+      <c r="C19" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// EMS оптимальное с объявленной ценностью и наложенным платежом
+  /// &lt;/summary&gt;
+ EMS_OPTIMAL_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>508</v>
+      </c>
+      <c r="B20" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// EMS РТ
+  /// &lt;/summary&gt;
+ EMS_RT_ORDINARY,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>509</v>
+      </c>
+      <c r="B21" t="s">
+        <v>499</v>
+      </c>
+      <c r="C21" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// EMS с объявленной ценностью
+  /// &lt;/summary&gt;
+ EMS_RT_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>510</v>
+      </c>
+      <c r="B22" t="s">
+        <v>511</v>
+      </c>
+      <c r="C22" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Посылка онлайн обыкновенная
+  /// &lt;/summary&gt;
+ ONLINE_PARCEL_ORDINARY,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>512</v>
+      </c>
+      <c r="B23" t="s">
+        <v>513</v>
+      </c>
+      <c r="C23" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Посылка онлайн с объявленной ценностью
+  /// &lt;/summary&gt;
+ ONLINE_PARCEL_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B24" t="s">
+        <v>515</v>
+      </c>
+      <c r="C24" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Посылка онлайн с объявленной ценностью и наложенным платежом
+  /// &lt;/summary&gt;
+ ONLINE_PARCEL_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>516</v>
+      </c>
+      <c r="B25" t="s">
+        <v>517</v>
+      </c>
+      <c r="C25" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Курьер онлайн обыкновенное
+  /// &lt;/summary&gt;
+ ONLINE_COURIER_ORDINARY,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B26" t="s">
+        <v>519</v>
+      </c>
+      <c r="C26" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Курьер онлайн с объявленной ценностью
+  /// &lt;/summary&gt;
+ ONLINE_COURIER_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>520</v>
+      </c>
+      <c r="B27" t="s">
+        <v>521</v>
+      </c>
+      <c r="C27" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Курьер онлайн с объявленной ценностью и наложенным платежом
+  /// &lt;/summary&gt;
+ ONLINE_COURIER_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>522</v>
+      </c>
+      <c r="B28" t="s">
+        <v>523</v>
+      </c>
+      <c r="C28" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Бизнес Курьер обыкновненное
+  /// &lt;/summary&gt;
+ BUSINESS_COURIER_ORDINARY,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>524</v>
+      </c>
+      <c r="B29" t="s">
+        <v>525</v>
+      </c>
+      <c r="C29" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Бизнес Курьер с объявленной ценностью
+  /// &lt;/summary&gt;
+ BUSINESS_COURIER_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>526</v>
+      </c>
+      <c r="B30" t="s">
+        <v>527</v>
+      </c>
+      <c r="C30" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Бизнес Курьер экспресс обыкновненное
+  /// &lt;/summary&gt;
+ BUSINESS_COURIER_ES_ORDINARY,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>528</v>
+      </c>
+      <c r="B31" t="s">
+        <v>529</v>
+      </c>
+      <c r="C31" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Бизнес Курьер экспресс с объявленной ценностью
+  /// &lt;/summary&gt;
+ BUSINESS_COURIER_ES_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>530</v>
+      </c>
+      <c r="B32" t="s">
+        <v>531</v>
+      </c>
+      <c r="C32" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Посылка 1-го класса обыкновенная
+  /// &lt;/summary&gt;
+ PARCEL_CLASS_1_ORDINARY,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>532</v>
+      </c>
+      <c r="B33" t="s">
+        <v>533</v>
+      </c>
+      <c r="C33" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Посылка 1-го класса с объявленной ценностью
+  /// &lt;/summary&gt;
+ PARCEL_CLASS_1_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>534</v>
+      </c>
+      <c r="B34" t="s">
+        <v>535</v>
+      </c>
+      <c r="C34" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Посылка 1-го класса с объявленной ценностью и наложенным платежом
+  /// &lt;/summary&gt;
+ PARCEL_CLASS_1_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>536</v>
+      </c>
+      <c r="B35" t="s">
+        <v>537</v>
+      </c>
+      <c r="C35" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Письмо 1-го класса заказное
+  /// &lt;/summary&gt;
+ LETTER_CLASS_1_ORDERED,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>538</v>
+      </c>
+      <c r="B36" t="s">
+        <v>539</v>
+      </c>
+      <c r="C36" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Письмо 1-го класса с объявленной ценностью
+  /// &lt;/summary&gt;
+ LETTER_CLASS_1_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>540</v>
+      </c>
+      <c r="B37" t="s">
+        <v>541</v>
+      </c>
+      <c r="C37" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Письмо 1-го класса с объявленной ценностью и наложенным платежом
+  /// &lt;/summary&gt;
+ LETTER_CLASS_1_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>542</v>
+      </c>
+      <c r="B38" t="s">
+        <v>543</v>
+      </c>
+      <c r="C38" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Бандероль 1 класса заказное
+  /// &lt;/summary&gt;
+ BANDEROL_CLASS_1_ORDERED,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>544</v>
+      </c>
+      <c r="B39" t="s">
+        <v>545</v>
+      </c>
+      <c r="C39" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Бандероль 1 класса с объявленной ценностью
+  /// &lt;/summary&gt;
+ BANDEROL_CLASS_1_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>546</v>
+      </c>
+      <c r="B40" t="s">
+        <v>547</v>
+      </c>
+      <c r="C40" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Бандероль 1 класса с объявленной ценностью и наложенным платежом
+  /// &lt;/summary&gt;
+ BANDEROL_CLASS_1_WITH_DECLARED_VALUE_AND_CASH_ON_DELIVERY,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>548</v>
+      </c>
+      <c r="B41" t="s">
+        <v>549</v>
+      </c>
+      <c r="C41" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Письмо обыкновенное (консолидатор)
+  /// &lt;/summary&gt;
+ LETTER_SIMPLE,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>550</v>
+      </c>
+      <c r="B42" t="s">
+        <v>551</v>
+      </c>
+      <c r="C42" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Простое письмо единичное
+  /// &lt;/summary&gt;
+ SINGLE_LETTER_SIMPLE,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>552</v>
+      </c>
+      <c r="B43" t="s">
+        <v>553</v>
+      </c>
+      <c r="C43" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Простая бандероль единичная
+  /// &lt;/summary&gt;
+ SINGLE_BANDEROL_SIMPLE,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>554</v>
+      </c>
+      <c r="B44" t="s">
+        <v>555</v>
+      </c>
+      <c r="C44" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Мелкий пакет заказной
+  /// &lt;/summary&gt;
+ SMALL_PACKET_ORDERED,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>556</v>
+      </c>
+      <c r="B45" t="s">
+        <v>557</v>
+      </c>
+      <c r="C45" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// EMS международное обыкновенное
+  /// &lt;/summary&gt;
+ INTERNATIONAL_EMS_ORDINARY,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>558</v>
+      </c>
+      <c r="B46" t="s">
+        <v>559</v>
+      </c>
+      <c r="C46" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Международное простое письмо
+  /// &lt;/summary&gt;
+ INTERNATIONAL_SINGLE_LETTER_SIMPLE,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>560</v>
+      </c>
+      <c r="B47" t="s">
+        <v>561</v>
+      </c>
+      <c r="C47" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// ВГПО 1-го класса заказное
+  /// &lt;/summary&gt;
+ VGPO_CLASS_1_ORDERED,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>562</v>
+      </c>
+      <c r="B48" t="s">
+        <v>563</v>
+      </c>
+      <c r="C48" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// ВГПО 1-го класса простое
+  /// &lt;/summary&gt;
+ VGPO_CLASS_1_SIMPLE,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>564</v>
+      </c>
+      <c r="B49" t="s">
+        <v>565</v>
+      </c>
+      <c r="C49" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// EMS Тендер
+  /// &lt;/summary&gt;
+ EMS_TENDER_ORDINARY,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>566</v>
+      </c>
+      <c r="B50" t="s">
+        <v>567</v>
+      </c>
+      <c r="C50" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// EMS Тендер с объявленной ценностью
+  /// &lt;/summary&gt;
+ EMS_TENDER_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>568</v>
+      </c>
+      <c r="B51" t="s">
+        <v>387</v>
+      </c>
+      <c r="C51" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Отправление ВСД
+  /// &lt;/summary&gt;
+ VSD_ORDINARY,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>569</v>
+      </c>
+      <c r="B52" t="s">
+        <v>570</v>
+      </c>
+      <c r="C52" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// ЕКОМ обыкновенное
+  /// &lt;/summary&gt;
+ ECOM_ORDINARY,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>571</v>
+      </c>
+      <c r="B53" t="s">
+        <v>572</v>
+      </c>
+      <c r="C53" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// ЕКОМ с обязательным платежом
+  /// &lt;/summary&gt;
+ ECOM_WITH_COMPULSORY_PAYMENT,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>573</v>
+      </c>
+      <c r="B54" t="s">
+        <v>574</v>
+      </c>
+      <c r="C54" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// ЕКОМ Маркетплейс с объявленной ценностью
+  /// &lt;/summary&gt;
+ ECOM_MARKETPLACE_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>575</v>
+      </c>
+      <c r="B55" t="s">
+        <v>576</v>
+      </c>
+      <c r="C55" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Легкий возврат обыкновенное
+  /// &lt;/summary&gt;
+ EASY_RETURN_ORDINARY,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>577</v>
+      </c>
+      <c r="B56" t="s">
+        <v>578</v>
+      </c>
+      <c r="C56" t="str">
+        <f>"/// &lt;summary&gt;
+  /// "&amp;Таблица7[[#This Row],[Описание]]&amp;"
+  /// &lt;/summary&gt;
+ "&amp;Таблица7[[#This Row],[Значение]]&amp;","</f>
+        <v>/// &lt;summary&gt;
+  /// Легкий возврат с объявленной ценностью
+  /// &lt;/summary&gt;
+ EASY_RETURN_WITH_DECLARED_VALUE,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/ГенераторКода.xlsx
+++ b/ГенераторКода.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12075" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Дичь" sheetId="1" r:id="rId1"/>
@@ -1833,6 +1833,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица8" displayName="Таблица8" ref="A1:E340" totalsRowShown="0">
+  <autoFilter ref="A1:E340"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Код операции"/>
+    <tableColumn id="2" name="Название операции"/>
+    <tableColumn id="3" name="Код атрибута"/>
+    <tableColumn id="4" name="Название атрибута"/>
+    <tableColumn id="5" name="Является конечной операцией"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C53" totalsRowShown="0">
   <autoFilter ref="A1:C53"/>
   <tableColumns count="3">
@@ -1849,7 +1863,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:C23" totalsRowShown="0">
   <autoFilter ref="A1:C23"/>
   <tableColumns count="3">
@@ -1866,7 +1880,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
@@ -1883,7 +1897,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C16" totalsRowShown="0">
   <autoFilter ref="A1:C16"/>
   <tableColumns count="3">
@@ -1900,7 +1914,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
@@ -1917,7 +1931,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:C17" totalsRowShown="0">
   <autoFilter ref="A1:C17"/>
   <tableColumns count="3">
@@ -1934,7 +1948,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:C56" totalsRowShown="0">
   <autoFilter ref="A1:C56"/>
   <tableColumns count="3">
@@ -2240,17 +2254,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E340"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7090,6 +7104,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -7098,7 +7115,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9553,8 +9570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C56" sqref="C2:C56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
